--- a/HybridOfActiTime/data/ActiTimeTestData.xlsx
+++ b/HybridOfActiTime/data/ActiTimeTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moula\Desktop\WCSM8workspace\HybridOfActiTime\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moula\git\WCSM8\HybridOfActiTime\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB3A00-CC0D-4498-9750-5E568BC55DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BA448B-9C3F-4DF4-86E6-B841CA93E180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
     <t>AT WebApplication</t>
   </si>
   <si>
-    <t>Jun/8/2023</t>
+    <t>Jun/13/2023</t>
   </si>
 </sst>
 </file>
@@ -697,13 +697,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
